--- a/nr-update-profiles/ig/StructureDefinition-fr-observation-for-prescription.xlsx
+++ b/nr-update-profiles/ig/StructureDefinition-fr-observation-for-prescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="447">
   <si>
     <t>Property</t>
   </si>
@@ -54,70 +54,70 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2025-02-05T13:40:24+00:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Interop'Santé</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Interop'Santé (http://interopsante.org/)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Observation provided as context of the prescription (ex. weight, height...)</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Base Definition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Observation</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
     <t>false</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2025-02-05T13:32:30+00:00</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Interop'Santé</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>Interop'Santé (http://interopsante.org/)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Observation provided as context of the prescription (ex. weight, height...)</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>FHIR Version</t>
-  </si>
-  <si>
-    <t>4.0.1</t>
-  </si>
-  <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>resource</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Observation</t>
-  </si>
-  <si>
-    <t>Base Definition</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Observation</t>
-  </si>
-  <si>
-    <t>Abstract</t>
   </si>
   <si>
     <t>Derivation</t>
@@ -1607,100 +1607,98 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>13</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>14</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>16</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>22</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -1900,10 +1898,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1917,13 +1915,13 @@
         <v>81</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s" s="2">
         <v>82</v>
@@ -1939,53 +1937,53 @@
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>80</v>
@@ -1994,7 +1992,7 @@
         <v>81</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>86</v>
@@ -2012,10 +2010,10 @@
         <v>90</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -2027,7 +2025,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
@@ -2037,10 +2035,10 @@
         <v>92</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>93</v>
@@ -2059,50 +2057,50 @@
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>98</v>
@@ -2114,28 +2112,28 @@
         <v>92</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -2147,7 +2145,7 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -2157,10 +2155,10 @@
         <v>92</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>93</v>
@@ -2177,50 +2175,50 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>103</v>
@@ -2232,28 +2230,28 @@
         <v>92</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -2265,7 +2263,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -2275,7 +2273,7 @@
         <v>92</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>93</v>
@@ -2297,50 +2295,50 @@
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>110</v>
@@ -2352,28 +2350,28 @@
         <v>92</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP5" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -2385,7 +2383,7 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2395,13 +2393,13 @@
         <v>92</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>112</v>
@@ -2417,26 +2415,26 @@
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
         <v>116</v>
@@ -2448,19 +2446,19 @@
         <v>118</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>119</v>
@@ -2472,28 +2470,28 @@
         <v>92</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP6" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -2515,13 +2513,13 @@
         <v>92</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>122</v>
@@ -2537,50 +2535,50 @@
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>126</v>
@@ -2592,28 +2590,28 @@
         <v>92</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>127</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP7" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -2635,13 +2633,13 @@
         <v>81</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>130</v>
@@ -2657,50 +2655,50 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>134</v>
@@ -2712,28 +2710,28 @@
         <v>81</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP8" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -2755,13 +2753,13 @@
         <v>81</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>138</v>
@@ -2777,50 +2775,50 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>142</v>
@@ -2832,28 +2830,28 @@
         <v>81</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>143</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP9" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -2875,13 +2873,13 @@
         <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>138</v>
@@ -2899,50 +2897,50 @@
         <v>147</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>148</v>
@@ -2954,28 +2952,28 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>143</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -2987,7 +2985,7 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2997,10 +2995,10 @@
         <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>93</v>
@@ -3019,50 +3017,50 @@
         <v>153</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>149</v>
@@ -3074,7 +3072,7 @@
         <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>104</v>
@@ -3083,7 +3081,7 @@
         <v>154</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>155</v>
@@ -3095,7 +3093,7 @@
         <v>157</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -3117,10 +3115,10 @@
         <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>93</v>
@@ -3139,50 +3137,50 @@
         <v>163</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>158</v>
@@ -3194,7 +3192,7 @@
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>104</v>
@@ -3203,7 +3201,7 @@
         <v>164</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>165</v>
@@ -3212,10 +3210,10 @@
         <v>166</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -3237,10 +3235,10 @@
         <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>93</v>
@@ -3259,50 +3257,50 @@
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>167</v>
@@ -3314,7 +3312,7 @@
         <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>104</v>
@@ -3323,7 +3321,7 @@
         <v>173</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>174</v>
@@ -3332,10 +3330,10 @@
         <v>175</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -3347,7 +3345,7 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3357,7 +3355,7 @@
         <v>92</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>93</v>
@@ -3381,26 +3379,26 @@
         <v>180</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
         <v>181</v>
@@ -3412,19 +3410,19 @@
         <v>183</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>176</v>
@@ -3436,7 +3434,7 @@
         <v>92</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>104</v>
@@ -3457,7 +3455,7 @@
         <v>188</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -3469,7 +3467,7 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3479,13 +3477,13 @@
         <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>190</v>
@@ -3503,26 +3501,26 @@
         <v>194</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
         <v>116</v>
@@ -3534,19 +3532,19 @@
         <v>196</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>189</v>
@@ -3558,19 +3556,19 @@
         <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>197</v>
@@ -3579,7 +3577,7 @@
         <v>198</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -3601,10 +3599,10 @@
         <v>92</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>93</v>
@@ -3625,26 +3623,26 @@
         <v>204</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
         <v>205</v>
@@ -3656,19 +3654,19 @@
         <v>207</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>199</v>
@@ -3680,7 +3678,7 @@
         <v>92</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>104</v>
@@ -3713,7 +3711,7 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3723,10 +3721,10 @@
         <v>92</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>93</v>
@@ -3747,50 +3745,50 @@
         <v>219</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>214</v>
@@ -3802,7 +3800,7 @@
         <v>92</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>104</v>
@@ -3811,7 +3809,7 @@
         <v>220</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>221</v>
@@ -3823,7 +3821,7 @@
         <v>223</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -3835,7 +3833,7 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3845,10 +3843,10 @@
         <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>93</v>
@@ -3867,50 +3865,50 @@
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>224</v>
@@ -3922,16 +3920,16 @@
         <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>210</v>
@@ -3943,7 +3941,7 @@
         <v>223</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
@@ -3965,10 +3963,10 @@
         <v>92</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>93</v>
@@ -3989,50 +3987,50 @@
         <v>236</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>230</v>
@@ -4044,7 +4042,7 @@
         <v>92</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>104</v>
@@ -4053,7 +4051,7 @@
         <v>237</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>238</v>
@@ -4065,7 +4063,7 @@
         <v>240</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
@@ -4087,10 +4085,10 @@
         <v>92</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>93</v>
@@ -4111,50 +4109,50 @@
         <v>247</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>241</v>
@@ -4166,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>104</v>
@@ -4175,7 +4173,7 @@
         <v>248</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>249</v>
@@ -4187,7 +4185,7 @@
         <v>251</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -4199,7 +4197,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4209,10 +4207,10 @@
         <v>92</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>93</v>
@@ -4231,50 +4229,50 @@
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>252</v>
@@ -4286,16 +4284,16 @@
         <v>92</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>257</v>
@@ -4307,7 +4305,7 @@
         <v>259</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -4319,7 +4317,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4329,10 +4327,10 @@
         <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>93</v>
@@ -4351,50 +4349,50 @@
         <v>264</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>260</v>
@@ -4406,7 +4404,7 @@
         <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>104</v>
@@ -4415,7 +4413,7 @@
         <v>265</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>266</v>
@@ -4427,7 +4425,7 @@
         <v>268</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
@@ -4439,7 +4437,7 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4449,10 +4447,10 @@
         <v>92</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>93</v>
@@ -4473,50 +4471,50 @@
         <v>274</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>269</v>
@@ -4534,7 +4532,7 @@
         <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>276</v>
@@ -4546,7 +4544,7 @@
         <v>278</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>279</v>
@@ -4561,7 +4559,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4571,13 +4569,13 @@
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>190</v>
@@ -4595,26 +4593,26 @@
         <v>284</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
         <v>285</v>
@@ -4626,19 +4624,19 @@
         <v>287</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>280</v>
@@ -4656,10 +4654,10 @@
         <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>135</v>
@@ -4668,10 +4666,10 @@
         <v>289</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -4693,13 +4691,13 @@
         <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>190</v>
@@ -4717,26 +4715,26 @@
         <v>295</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
         <v>285</v>
@@ -4748,19 +4746,19 @@
         <v>297</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>290</v>
@@ -4772,13 +4770,13 @@
         <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>298</v>
@@ -4790,7 +4788,7 @@
         <v>300</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>301</v>
@@ -4805,7 +4803,7 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4815,13 +4813,13 @@
         <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>303</v>
@@ -4839,50 +4837,50 @@
         <v>307</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>302</v>
@@ -4894,16 +4892,16 @@
         <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>308</v>
@@ -4912,10 +4910,10 @@
         <v>309</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
@@ -4927,7 +4925,7 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4937,13 +4935,13 @@
         <v>92</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>190</v>
@@ -4959,26 +4957,26 @@
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
         <v>205</v>
@@ -4990,19 +4988,19 @@
         <v>315</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>310</v>
@@ -5014,13 +5012,13 @@
         <v>92</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>316</v>
@@ -5032,7 +5030,7 @@
         <v>318</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>319</v>
@@ -5047,7 +5045,7 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5057,13 +5055,13 @@
         <v>92</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>190</v>
@@ -5081,26 +5079,26 @@
         <v>324</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
         <v>205</v>
@@ -5112,19 +5110,19 @@
         <v>326</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>320</v>
@@ -5136,16 +5134,16 @@
         <v>92</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>327</v>
@@ -5154,10 +5152,10 @@
         <v>328</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
@@ -5169,7 +5167,7 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5179,13 +5177,13 @@
         <v>92</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>330</v>
@@ -5201,50 +5199,50 @@
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>329</v>
@@ -5256,13 +5254,13 @@
         <v>92</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>334</v>
@@ -5274,7 +5272,7 @@
         <v>336</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>337</v>
@@ -5289,7 +5287,7 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5299,13 +5297,13 @@
         <v>92</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>339</v>
@@ -5321,50 +5319,50 @@
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>338</v>
@@ -5376,13 +5374,13 @@
         <v>92</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>343</v>
@@ -5394,7 +5392,7 @@
         <v>345</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>346</v>
@@ -5409,7 +5407,7 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5419,13 +5417,13 @@
         <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>348</v>
@@ -5443,50 +5441,50 @@
         <v>352</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>347</v>
@@ -5498,16 +5496,16 @@
         <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>353</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>354</v>
@@ -5516,10 +5514,10 @@
         <v>355</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
@@ -5531,7 +5529,7 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5541,13 +5539,13 @@
         <v>92</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>357</v>
@@ -5561,50 +5559,50 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>360</v>
@@ -5616,28 +5614,28 @@
         <v>92</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>361</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
@@ -5659,13 +5657,13 @@
         <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>138</v>
@@ -5681,50 +5679,50 @@
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>364</v>
@@ -5736,28 +5734,28 @@
         <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>143</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>361</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
@@ -5779,7 +5777,7 @@
         <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>93</v>
@@ -5803,50 +5801,50 @@
         <v>147</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>369</v>
@@ -5858,28 +5856,28 @@
         <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>143</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
@@ -5891,7 +5889,7 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5901,13 +5899,13 @@
         <v>92</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>371</v>
@@ -5921,50 +5919,50 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>370</v>
@@ -5982,10 +5980,10 @@
         <v>104</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>375</v>
@@ -5994,10 +5992,10 @@
         <v>376</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
@@ -6009,7 +6007,7 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6019,13 +6017,13 @@
         <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>371</v>
@@ -6039,50 +6037,50 @@
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>377</v>
@@ -6100,10 +6098,10 @@
         <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>375</v>
@@ -6112,10 +6110,10 @@
         <v>380</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
@@ -6127,7 +6125,7 @@
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6137,13 +6135,13 @@
         <v>92</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>190</v>
@@ -6161,26 +6159,26 @@
         <v>385</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X37" t="s" s="2">
         <v>116</v>
@@ -6192,19 +6190,19 @@
         <v>387</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>381</v>
@@ -6216,13 +6214,13 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>388</v>
@@ -6234,10 +6232,10 @@
         <v>300</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
@@ -6249,7 +6247,7 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6259,13 +6257,13 @@
         <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>190</v>
@@ -6283,26 +6281,26 @@
         <v>394</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X38" t="s" s="2">
         <v>205</v>
@@ -6314,19 +6312,19 @@
         <v>396</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>390</v>
@@ -6338,13 +6336,13 @@
         <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>388</v>
@@ -6356,10 +6354,10 @@
         <v>300</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -6371,7 +6369,7 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6381,13 +6379,13 @@
         <v>92</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>398</v>
@@ -6403,50 +6401,50 @@
         <v>401</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>397</v>
@@ -6458,28 +6456,28 @@
         <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>402</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
@@ -6491,7 +6489,7 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6501,13 +6499,13 @@
         <v>92</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>357</v>
@@ -6521,50 +6519,50 @@
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>403</v>
@@ -6576,16 +6574,16 @@
         <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>375</v>
@@ -6594,10 +6592,10 @@
         <v>406</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
@@ -6609,7 +6607,7 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6619,10 +6617,10 @@
         <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>93</v>
@@ -6641,50 +6639,50 @@
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>407</v>
@@ -6696,16 +6694,16 @@
         <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>412</v>
@@ -6714,10 +6712,10 @@
         <v>413</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
@@ -6729,7 +6727,7 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6739,10 +6737,10 @@
         <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>93</v>
@@ -6761,50 +6759,50 @@
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>414</v>
@@ -6816,16 +6814,16 @@
         <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>412</v>
@@ -6834,10 +6832,10 @@
         <v>419</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -6849,7 +6847,7 @@
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6859,10 +6857,10 @@
         <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>93</v>
@@ -6883,50 +6881,50 @@
         <v>424</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>420</v>
@@ -6938,16 +6936,16 @@
         <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>425</v>
@@ -6956,10 +6954,10 @@
         <v>426</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
@@ -6971,7 +6969,7 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6981,13 +6979,13 @@
         <v>92</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>357</v>
@@ -7001,50 +6999,50 @@
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>360</v>
@@ -7056,28 +7054,28 @@
         <v>92</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>361</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
@@ -7099,13 +7097,13 @@
         <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>138</v>
@@ -7121,50 +7119,50 @@
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>364</v>
@@ -7176,28 +7174,28 @@
         <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>143</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>361</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
@@ -7219,7 +7217,7 @@
         <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>93</v>
@@ -7243,50 +7241,50 @@
         <v>147</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>369</v>
@@ -7298,28 +7296,28 @@
         <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>143</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
@@ -7331,7 +7329,7 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7341,10 +7339,10 @@
         <v>92</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>93</v>
@@ -7365,26 +7363,26 @@
         <v>204</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X47" t="s" s="2">
         <v>205</v>
@@ -7396,19 +7394,19 @@
         <v>207</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>430</v>
@@ -7420,13 +7418,13 @@
         <v>92</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>434</v>
@@ -7441,7 +7439,7 @@
         <v>212</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
@@ -7453,7 +7451,7 @@
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7463,10 +7461,10 @@
         <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>93</v>
@@ -7487,50 +7485,50 @@
         <v>274</v>
       </c>
       <c r="P48" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>435</v>
@@ -7542,13 +7540,13 @@
         <v>92</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>438</v>
@@ -7560,7 +7558,7 @@
         <v>278</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>279</v>
@@ -7575,7 +7573,7 @@
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7585,13 +7583,13 @@
         <v>92</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>190</v>
@@ -7609,26 +7607,26 @@
         <v>284</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
         <v>285</v>
@@ -7640,19 +7638,19 @@
         <v>287</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>439</v>
@@ -7670,10 +7668,10 @@
         <v>104</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>135</v>
@@ -7682,10 +7680,10 @@
         <v>289</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
@@ -7707,13 +7705,13 @@
         <v>81</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>190</v>
@@ -7731,26 +7729,26 @@
         <v>295</v>
       </c>
       <c r="P50" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
         <v>285</v>
@@ -7762,19 +7760,19 @@
         <v>297</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>443</v>
@@ -7786,13 +7784,13 @@
         <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>298</v>
@@ -7804,7 +7802,7 @@
         <v>300</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>301</v>
@@ -7819,7 +7817,7 @@
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7829,13 +7827,13 @@
         <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>82</v>
@@ -7853,50 +7851,50 @@
         <v>352</v>
       </c>
       <c r="P51" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>444</v>
@@ -7908,16 +7906,16 @@
         <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>354</v>
@@ -7926,10 +7924,10 @@
         <v>355</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/nr-update-profiles/ig/StructureDefinition-fr-observation-for-prescription.xlsx
+++ b/nr-update-profiles/ig/StructureDefinition-fr-observation-for-prescription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T13:40:24+00:00</t>
+    <t>2025-02-05T13:46:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-profiles/ig/StructureDefinition-fr-observation-for-prescription.xlsx
+++ b/nr-update-profiles/ig/StructureDefinition-fr-observation-for-prescription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T13:46:54+00:00</t>
+    <t>2025-02-05T14:43:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-profiles/ig/StructureDefinition-fr-observation-for-prescription.xlsx
+++ b/nr-update-profiles/ig/StructureDefinition-fr-observation-for-prescription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T14:43:21+00:00</t>
+    <t>2025-02-05T14:51:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-profiles/ig/StructureDefinition-fr-observation-for-prescription.xlsx
+++ b/nr-update-profiles/ig/StructureDefinition-fr-observation-for-prescription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T14:51:15+00:00</t>
+    <t>2025-02-05T14:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-profiles/ig/StructureDefinition-fr-observation-for-prescription.xlsx
+++ b/nr-update-profiles/ig/StructureDefinition-fr-observation-for-prescription.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T14:57:31+00:00</t>
+    <t>2025-02-06T08:56:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
